--- a/docs/embedding_models_eval.xlsx
+++ b/docs/embedding_models_eval.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t xml:space="preserve">model_name</t>
   </si>
@@ -284,6 +284,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://ollama.com/library/nomic-embed-text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isomap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster / no branching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t-SNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no good</t>
   </si>
 </sst>
 </file>
@@ -392,7 +413,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -411,6 +432,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -490,14 +515,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" activeCellId="0" sqref="B16:C16"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -767,16 +792,16 @@
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -876,6 +901,37 @@
       </c>
       <c r="G16" s="2" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
